--- a/GameData/技能分配简表/特技/特技：职业特色技能列表.xlsx
+++ b/GameData/技能分配简表/特技/特技：职业特色技能列表.xlsx
@@ -5,27 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FE_Proj\FE8U-cSkillSystem\Readme-Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FE_Proj\FE8U-cSkillSystem\GameData\技能分配简表\特技\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89015C19-4988-490A-9898-94B555BC46AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774D12DC-A2A0-43C4-A9DA-24069122961F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="16200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="96">
   <si>
     <t>职业名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,146 +71,368 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>领主艾瑞珂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>领主骑士艾瑞珂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>独角兽骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狙击手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慧眼一击</t>
+  </si>
+  <si>
+    <t>将军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回击</t>
+  </si>
+  <si>
+    <t>再动</t>
+  </si>
+  <si>
+    <t>盗贼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侠盗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德鲁伊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷盗</t>
+  </si>
+  <si>
+    <t>开锁</t>
+  </si>
+  <si>
+    <t>穿越</t>
+  </si>
+  <si>
+    <t>黑魔法射程+1</t>
+  </si>
+  <si>
+    <t>魔力觉醒</t>
+  </si>
+  <si>
+    <t>熟练特技2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练特技3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有低阶职业的熟练技能通用狮子与魔鬼神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低阶弓与魔法通用熟练技能获得射程+1，高阶通用射程+1与命中+30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山贼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海贼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑圣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑勇者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧勇者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙骑统帅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翼龙骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔道士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修道士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贤者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游牧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高阶游牧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神官骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高阶神官骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度+2</t>
+  </si>
+  <si>
+    <t>技术+2</t>
+  </si>
+  <si>
+    <t>防御+2</t>
+  </si>
+  <si>
+    <t>力量+2</t>
+  </si>
+  <si>
+    <t>幸运+2</t>
+  </si>
+  <si>
+    <t>刚剑</t>
+  </si>
+  <si>
+    <t>刚剑+</t>
+  </si>
+  <si>
+    <t>破败之刃+</t>
+  </si>
+  <si>
+    <t>无尽之刃</t>
+  </si>
+  <si>
+    <t>箭术lv5</t>
+  </si>
+  <si>
+    <t>柔剑</t>
+  </si>
+  <si>
+    <t>柔剑+</t>
+  </si>
+  <si>
+    <t>狮子奋迅+</t>
+  </si>
+  <si>
+    <t>回避觉醒</t>
+  </si>
+  <si>
+    <t>必杀觉醒</t>
+  </si>
+  <si>
+    <t>防守堡垒</t>
+  </si>
+  <si>
+    <t>狮子连斩</t>
+  </si>
+  <si>
+    <t>刺客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞蹈</t>
+  </si>
+  <si>
+    <t>警戒态势</t>
+  </si>
+  <si>
+    <t>力量觉醒</t>
   </si>
   <si>
     <t>速度觉醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回避+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞燕一击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼神一击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猛攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞马骑士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警戒态势</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>独角兽骑士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>警戒态势+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回避+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓箭手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓射程+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狙击手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>慧眼一击</t>
-  </si>
-  <si>
-    <t>命中+20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重步兵</t>
+  </si>
+  <si>
+    <t>命中+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF24292E"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>柔剑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑魔法射程+2</t>
+  </si>
+  <si>
+    <t>弓射程+2</t>
+  </si>
+  <si>
+    <t>必杀+</t>
+  </si>
+  <si>
+    <t>需要必杀、攻击力与回避的职业需要配备有觉醒+狮子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量觉醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF24292E"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>瞬杀</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>鬼神金刚架势</t>
   </si>
   <si>
-    <t>将军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防守队形</t>
-  </si>
-  <si>
-    <t>迎击</t>
-  </si>
-  <si>
-    <t>回击</t>
-  </si>
-  <si>
-    <t>防守觉醒</t>
-  </si>
-  <si>
-    <t>再动</t>
-  </si>
-  <si>
-    <t>盗贼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侠盗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巫师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>德鲁伊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤</t>
-  </si>
-  <si>
-    <t>偷盗</t>
-  </si>
-  <si>
-    <t>开锁</t>
-  </si>
-  <si>
-    <t>穿越</t>
-  </si>
-  <si>
-    <t>黑魔法射程+1</t>
-  </si>
-  <si>
-    <t>魔力觉醒</t>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF24292E"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>魔力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>+2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +446,39 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF24292E"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF24292E"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF24292E"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,8 +501,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -520,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -532,12 +799,12 @@
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.4140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.4140625" customWidth="1"/>
+    <col min="11" max="14" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -554,177 +821,734 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" t="s">
+        <v>57</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="K19" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="K20" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" t="s">
+        <v>57</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23" t="s">
+        <v>93</v>
+      </c>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="K28" t="s">
+        <v>56</v>
+      </c>
+      <c r="L28" t="s">
+        <v>57</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K29" t="s">
+        <v>56</v>
+      </c>
+      <c r="L29" t="s">
+        <v>57</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K34" t="s">
+        <v>56</v>
+      </c>
+      <c r="L34" t="s">
+        <v>57</v>
+      </c>
+      <c r="M34" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K35" t="s">
+        <v>56</v>
+      </c>
+      <c r="L35" t="s">
+        <v>57</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="K37" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K39" t="s">
+        <v>56</v>
+      </c>
+      <c r="L39" t="s">
+        <v>58</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K40" t="s">
+        <v>56</v>
+      </c>
+      <c r="L40" t="s">
+        <v>58</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="C41" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K41" t="s">
+        <v>56</v>
+      </c>
+      <c r="L41" t="s">
+        <v>58</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>18</v>
       </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C44" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K46" t="s">
+        <v>56</v>
+      </c>
+      <c r="L46" t="s">
+        <v>58</v>
+      </c>
+      <c r="M46" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H8" t="s">
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K47" t="s">
+        <v>56</v>
+      </c>
+      <c r="L47" t="s">
+        <v>58</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K48" t="s">
+        <v>56</v>
+      </c>
+      <c r="L48" t="s">
+        <v>58</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" t="s">
-        <v>44</v>
+      <c r="F49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
